--- a/backEnd/huaqi/src/main/resources/file/calendar_border.xlsx
+++ b/backEnd/huaqi/src/main/resources/file/calendar_border.xlsx
@@ -65,12 +65,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>下一天：</t>
     </r>
     <r>
@@ -80,7 +74,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>2100-6-15</t>
+      <t>2100-6-16</t>
     </r>
   </si>
   <si>
@@ -371,6 +365,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -517,12 +517,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -830,10 +824,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,34 +836,31 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,98 +872,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -982,6 +976,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,7 +1302,7 @@
   <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12"/>
@@ -1381,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="1"/>
